--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE0CA46-A043-4092-93B9-1819AD9FEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5216775-8367-471A-977C-DE09107E9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>项目名称：</t>
   </si>
@@ -258,9 +258,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-04T20:19+9</t>
-  </si>
-  <si>
     <t>参见Windows 10 x64设备上的体验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -286,13 +283,103 @@
   <si>
     <t>失败。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00003</t>
+  </si>
+  <si>
+    <t>ACID3 基准测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://acid3.acidtests.org/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-17G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>FireFox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">启动 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FireFox ，打开测试用例</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>97/100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-05T18:09+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于 qemu 设备较为缓慢，所以有点卡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00004</t>
+  </si>
+  <si>
+    <t>HTML5 支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5标准支持测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>http://chrome.360.cn/test/html5/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-18G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>412/500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>97/100，剩下是FireFox没有实现的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-05T18:09+9</t>
+  </si>
+  <si>
+    <t>Pic-3.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +416,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,10 +457,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,9 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -701,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,13 +981,13 @@
         <v>34</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>30</v>
@@ -899,10 +999,10 @@
         <v>36</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>36</v>
@@ -948,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>30</v>
@@ -963,16 +1063,140 @@
         <v>37</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -983,14 +1207,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R6:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R8:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{8C918557-A78D-4E20-BEE4-3B53F5819D88}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{68CF812B-C58F-47AA-AF7C-B60A661F1D59}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5216775-8367-471A-977C-DE09107E9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA4EE6-1B7E-46EA-A937-16FAACBD8A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>项目名称：</t>
   </si>
@@ -262,9 +262,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>参见Windows 10 x65设备上的体验</t>
-  </si>
-  <si>
     <t>分辨率自1024x768调整为1366x768</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,6 +370,160 @@
   </si>
   <si>
     <t>Pic-3.png</t>
+  </si>
+  <si>
+    <t>TC00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8 基准套件测试- 版本 7
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chrome.360.cn/test/v8/run.html</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-19G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>分数比较</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-4.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-05T18:20+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体机分数9.17k，Vbox虚拟机（Ubuntu 22.04 LTS）8.28k，qemu 39分。该成绩足以怀疑 V8 引擎在 RISCV64 上的实现有所问题（或者没有优化）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00006</t>
+  </si>
+  <si>
+    <t>TC00007</t>
+  </si>
+  <si>
+    <t>TC00008</t>
+  </si>
+  <si>
+    <t>TC00009</t>
+  </si>
+  <si>
+    <t>TC00010</t>
+  </si>
+  <si>
+    <t>TC00011</t>
+  </si>
+  <si>
+    <t>TC00012</t>
+  </si>
+  <si>
+    <t>TC00013</t>
+  </si>
+  <si>
+    <t>常见网页框架测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>React</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ant.design/index-cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vuetifyjs.com/zh-Hans/</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-20G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-21G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>组件正常工作，未见加载缓慢现象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00，剩下是FireFox没有实现的</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动 FireFox ，打开测试用例，测试所有UI组件的运行情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-05T18:20+9</t>
+  </si>
+  <si>
+    <t>Pic-5.png</t>
+  </si>
+  <si>
+    <t>2022-08-05T18:20+10</t>
+  </si>
+  <si>
+    <t>Pic-6.png</t>
+  </si>
+  <si>
+    <t>成功，但是在加载组件期间，出现大量未响应，CPU使用率高于250%情况，说明引擎尚需优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，但是在加载组件期间，出现大量未响应，CPU使用率高于200%情况，说明引擎尚需优化。渲染引擎出现较为明显的翻页卡滞。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,6 +645,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>35</v>
@@ -999,10 +1153,10 @@
         <v>36</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>36</v>
@@ -1048,7 +1202,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>30</v>
@@ -1063,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>36</v>
@@ -1072,12 +1226,12 @@
         <v>38</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>27</v>
@@ -1086,31 +1240,31 @@
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>30</v>
@@ -1122,57 +1276,57 @@
         <v>36</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -1184,20 +1338,272 @@
         <v>36</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:21" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1207,7 +1613,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R8:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R11:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1217,8 +1623,9 @@
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{8C918557-A78D-4E20-BEE4-3B53F5819D88}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{68CF812B-C58F-47AA-AF7C-B60A661F1D59}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{66BB2FAB-E84E-42F2-84F7-438104CD77C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA4EE6-1B7E-46EA-A937-16FAACBD8A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1DB826-C2A8-404E-A4BE-322019E63BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>项目名称：</t>
   </si>
@@ -410,24 +410,6 @@
     <t>TC00007</t>
   </si>
   <si>
-    <t>TC00008</t>
-  </si>
-  <si>
-    <t>TC00009</t>
-  </si>
-  <si>
-    <t>TC00010</t>
-  </si>
-  <si>
-    <t>TC00011</t>
-  </si>
-  <si>
-    <t>TC00012</t>
-  </si>
-  <si>
-    <t>TC00013</t>
-  </si>
-  <si>
     <t>常见网页框架测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -509,20 +491,22 @@
     <t>2022-08-05T18:20+9</t>
   </si>
   <si>
-    <t>Pic-5.png</t>
-  </si>
-  <si>
     <t>2022-08-05T18:20+10</t>
   </si>
   <si>
-    <t>Pic-6.png</t>
-  </si>
-  <si>
     <t>成功，但是在加载组件期间，出现大量未响应，CPU使用率高于250%情况，说明引擎尚需优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>成功，但是在加载组件期间，出现大量未响应，CPU使用率高于200%情况，说明引擎尚需优化。渲染引擎出现较为明显的翻页卡滞。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-5.png Video-2.webm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-6.png Video-3.webm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +942,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1310,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -1423,31 +1407,31 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>30</v>
@@ -1462,16 +1446,16 @@
         <v>47</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
@@ -1482,31 +1466,31 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>30</v>
@@ -1521,89 +1505,35 @@
         <v>47</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="9"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="9"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="9"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="9"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="9"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="9"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1613,7 +1543,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R11:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R17:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1DB826-C2A8-404E-A4BE-322019E63BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A10C1-1318-4FCE-8E32-34ACA0508FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>项目名称：</t>
   </si>
@@ -507,6 +507,92 @@
   </si>
   <si>
     <t>Pic-6.png Video-3.webm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制快捷方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除快捷方式</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-22G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>启动 FireFox ，运行指定的操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别移除一个快捷方式和移除历史记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确响应指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于没有对照的qemu的x86环境，该测试结论将不可信。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于没有对照的qemu的x87环境，该测试结论将不可信。</t>
+  </si>
+  <si>
+    <t>由于没有对照的qemu的x88环境，该测试结论将不可信。</t>
+  </si>
+  <si>
+    <t>未见异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022-08-05T23:45+8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.webm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00008</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,6 +719,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>36</v>
@@ -1434,7 +1524,7 @@
         <v>89</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>36</v>
@@ -1493,7 +1583,7 @@
         <v>89</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>36</v>
@@ -1517,8 +1607,64 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A10C1-1318-4FCE-8E32-34ACA0508FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154F145-0F21-4420-B836-95DFBB08B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
   <si>
     <t>项目名称：</t>
   </si>
@@ -410,6 +410,9 @@
     <t>TC00007</t>
   </si>
   <si>
+    <t>TC00009</t>
+  </si>
+  <si>
     <t>常见网页框架测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -593,6 +596,45 @@
   </si>
   <si>
     <t>TC00008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑快捷方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-23G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-05T23:49+8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -714,16 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1313,13 +1352,13 @@
       <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1375,13 +1414,13 @@
       <c r="D7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1400,7 +1439,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -1437,13 +1476,13 @@
       <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -1461,11 +1500,11 @@
       <c r="L8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>36</v>
@@ -1496,35 +1535,36 @@
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="M9" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="N9" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>36</v>
@@ -1536,16 +1576,16 @@
         <v>47</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
@@ -1555,35 +1595,36 @@
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>85</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="M10" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="N10" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>36</v>
@@ -1595,51 +1636,52 @@
         <v>47</v>
       </c>
       <c r="R10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="U10" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
-        <v>110</v>
+      <c r="B11" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
+      <c r="D11" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>89</v>
+      <c r="L11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>30</v>
@@ -1653,21 +1695,76 @@
       <c r="Q11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="12" t="s">
-        <v>107</v>
+      <c r="R11" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+      <c r="S12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154F145-0F21-4420-B836-95DFBB08B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972FEF3C-221E-4834-9CF0-CD7B83E872EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>项目名称：</t>
   </si>
@@ -410,7 +410,7 @@
     <t>TC00007</t>
   </si>
   <si>
-    <t>TC00009</t>
+    <t>TC00010</t>
   </si>
   <si>
     <t>常见网页框架测试</t>
@@ -635,6 +635,52 @@
   </si>
   <si>
     <t>2022-08-05T23:49+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定和移动快捷方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-24G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>2022-08-05T23:49+9</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>未见异常，但是拖放识别不准确？（有一定翻车率）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1070,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,7 +1756,7 @@
     </row>
     <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>27</v>
@@ -1766,8 +1812,61 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972FEF3C-221E-4834-9CF0-CD7B83E872EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E46E0-3B65-4DA9-8BEB-868AF2D018BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
   <si>
     <t>项目名称：</t>
   </si>
@@ -410,7 +410,10 @@
     <t>TC00007</t>
   </si>
   <si>
-    <t>TC00010</t>
+    <t>TC00011</t>
+  </si>
+  <si>
+    <t>TC00012</t>
   </si>
   <si>
     <t>常见网页框架测试</t>
@@ -651,9 +654,6 @@
 硬盘容量：10.7G-24G  QEMU虚拟机</t>
   </si>
   <si>
-    <t>2022-08-05T23:49+9</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -681,6 +681,106 @@
   </si>
   <si>
     <t>未见异常，但是拖放识别不准确？（有一定翻车率）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加快捷方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-25G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整显示快捷方式的数目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-26G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <r>
+      <t>启动 FireFox ，运行指定的操作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将一行调整为两行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-05T23:58+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-06T00:00+8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,7 +1220,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,7 +1507,7 @@
       <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1466,7 +1569,7 @@
       <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1485,7 +1588,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -1550,7 +1653,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>36</v>
@@ -1582,35 +1685,35 @@
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="12" t="s">
-        <v>84</v>
+      <c r="G9" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>36</v>
@@ -1622,16 +1725,16 @@
         <v>47</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
@@ -1642,35 +1745,35 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>36</v>
@@ -1682,30 +1785,30 @@
         <v>47</v>
       </c>
       <c r="R10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="U10" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>111</v>
+      <c r="B11" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="13" t="s">
         <v>100</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>64</v>
@@ -1715,19 +1818,19 @@
         <v>55</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>30</v>
@@ -1742,30 +1845,30 @@
         <v>47</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
-        <v>116</v>
+      <c r="B12" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1773,19 +1876,19 @@
         <v>55</v>
       </c>
       <c r="I12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>30</v>
@@ -1800,48 +1903,48 @@
         <v>47</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
-        <v>81</v>
+      <c r="B13" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>90</v>
+      <c r="L13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>30</v>
@@ -1862,17 +1965,123 @@
         <v>36</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E46E0-3B65-4DA9-8BEB-868AF2D018BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D26C5-C874-4764-B810-C5B6B12AE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
   <si>
     <t>项目名称：</t>
   </si>
@@ -416,6 +416,9 @@
     <t>TC00012</t>
   </si>
   <si>
+    <t>TC00013</t>
+  </si>
+  <si>
     <t>常见网页框架测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -781,6 +784,68 @@
   </si>
   <si>
     <t>2022-08-06T00:00+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的选择条位置不正确。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录并启用同步服务</t>
+  </si>
+  <si>
+    <t>登录并启用同步服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-27G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>正确响应指令，并在可接受的延迟内同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页同步正确，书签未在可接受的时间内同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动Firefox并登录，并等待适当时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,7 +1569,7 @@
       <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1569,7 +1631,7 @@
       <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1588,7 +1650,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -1653,7 +1715,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>36</v>
@@ -1685,35 +1747,35 @@
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="13" t="s">
-        <v>85</v>
+      <c r="G9" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>36</v>
@@ -1725,16 +1787,16 @@
         <v>47</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
@@ -1745,35 +1807,35 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>36</v>
@@ -1785,30 +1847,30 @@
         <v>47</v>
       </c>
       <c r="R10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="U10" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
-        <v>112</v>
+      <c r="B11" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="14" t="s">
         <v>101</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>64</v>
@@ -1818,19 +1880,19 @@
         <v>55</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>30</v>
@@ -1845,30 +1907,30 @@
         <v>47</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
-        <v>117</v>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1876,19 +1938,19 @@
         <v>55</v>
       </c>
       <c r="I12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>30</v>
@@ -1903,48 +1965,50 @@
         <v>47</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
-        <v>122</v>
+      <c r="B13" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>91</v>
+      <c r="L13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>30</v>
@@ -1959,48 +2023,50 @@
         <v>47</v>
       </c>
       <c r="R13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>91</v>
+      <c r="L14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>30</v>
@@ -2015,48 +2081,50 @@
         <v>47</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>91</v>
+      <c r="L15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>30</v>
@@ -2071,20 +2139,75 @@
         <v>47</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:U5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D26C5-C874-4764-B810-C5B6B12AE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC8E074-830A-4C12-820B-025EB0068EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
   <si>
     <t>项目名称：</t>
   </si>
@@ -695,120 +695,281 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整显示快捷方式的数目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>启动 FireFox ，运行指定的操作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将一行调整为两行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-05T23:58+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-06T00:00+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的选择条位置不正确。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录并启用同步服务</t>
+  </si>
+  <si>
+    <t>登录并启用同步服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确响应指令，并在可接受的延迟内同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页同步正确，书签未在可接受的时间内同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动Firefox并登录，并等待适当时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>RISC-V 64  CPU核数：8
 内存：8G
 硬盘容量：10.7G-25G  QEMU虚拟机</t>
-  </si>
-  <si>
-    <r>
-      <t>Video-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.webm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整显示快捷方式的数目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RISC-V 64  CPU核数：8
 内存：8G
 硬盘容量：10.7G-26G  QEMU虚拟机</t>
-  </si>
-  <si>
-    <r>
-      <t>启动 FireFox ，运行指定的操作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>将一行调整为两行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Video-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8.webm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>2022-08-05T23:58+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-08-06T00:00+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的选择条位置不正确。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录并启用同步服务</t>
-  </si>
-  <si>
-    <t>登录并启用同步服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RISC-V 64  CPU核数：8
 内存：8G
 硬盘容量：10.7G-27G  QEMU虚拟机</t>
-  </si>
-  <si>
-    <t>正确响应指令，并在可接受的延迟内同步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox 使用入门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在统一的地址栏搜索一切</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为网页添加书签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有增强跟踪保护的隐私浏览：快速而且免费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制菜单和工具栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00014</t>
+  </si>
+  <si>
+    <t>TC00015</t>
+  </si>
+  <si>
+    <t>TC00016</t>
+  </si>
+  <si>
+    <t>TC00017</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-28G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-29G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-30G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>TC00018</t>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看下载历史</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00019</t>
+  </si>
+  <si>
+    <t>TC00020</t>
+  </si>
+  <si>
+    <t>更改语言</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00021</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-31G  QEMU虚拟机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载管理器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-32G  QEMU虚拟机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-33G  QEMU虚拟机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在页面内搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用查找栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-34G  QEMU虚拟机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-35G  QEMU虚拟机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+9</t>
   </si>
   <si>
     <r>
@@ -823,7 +984,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9.webm</t>
+      <t>10.webm</t>
     </r>
     <r>
       <rPr>
@@ -837,16 +998,207 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页同步正确，书签未在可接受的时间内同步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动Firefox并登录，并等待适当时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>2022-08-06T00:05+10</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+11</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+12</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+13</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+14</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+15</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+16</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -1279,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>121</v>
@@ -2039,24 +2391,24 @@
       <c r="B14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2090,35 +2442,35 @@
         <v>117</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>106</v>
@@ -2139,47 +2491,47 @@
         <v>47</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>137</v>
+      <c r="I16" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>92</v>
@@ -2197,16 +2549,412 @@
         <v>47</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="M17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="M18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="M19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="M20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B23" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B24" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2965,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R17:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R25:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576 F3:F20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2228,8 +2976,13 @@
     <hyperlink ref="G6" r:id="rId1" xr:uid="{8C918557-A78D-4E20-BEE4-3B53F5819D88}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{68CF812B-C58F-47AA-AF7C-B60A661F1D59}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{66BB2FAB-E84E-42F2-84F7-438104CD77C0}"/>
+    <hyperlink ref="E17" r:id="rId4" location="w_zai-tong-yi-de-di-zhi-lan-sou-suo-yi-qie" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_zai-tong-yi-de-di-zhi-lan-sou-suo-yi-qie" xr:uid="{8A74230B-7D05-4625-A511-DFE837B04CE3}"/>
+    <hyperlink ref="E18" r:id="rId5" location="w_wei-wang-ye-tian-jia-shu-qian" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_wei-wang-ye-tian-jia-shu-qian" xr:uid="{93A32FB6-2033-4759-AE3F-783BEB60C1E9}"/>
+    <hyperlink ref="E19" r:id="rId6" location="w_dai-you-zeng-qiang-gen-zong-bao-hu-de-yin-si-liu-lan-kuai-su-er-qie-mian-fei" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_dai-you-zeng-qiang-gen-zong-bao-hu-de-yin-si-liu-lan-kuai-su-er-qie-mian-fei" xr:uid="{00235EA2-051E-40E3-ADED-060B077CB6E8}"/>
+    <hyperlink ref="E20" r:id="rId7" location="w_ding-zhi-cai-dan-he-gong-ju-lan" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_ding-zhi-cai-dan-he-gong-ju-lan" xr:uid="{1EBA5ADC-67E2-4BC4-89EC-49AC1684D248}"/>
+    <hyperlink ref="E23" r:id="rId8" location="w_shi-yong-cha-zhao-lan" display="https://support.mozilla.org/zh-CN/kb/%E5%9C%A8%E9%A1%B5%E9%9D%A2%E5%86%85%E6%90%9C%E7%B4%A2 - w_shi-yong-cha-zhao-lan" xr:uid="{6349AF0C-7D15-4ABE-9EC1-B3DAA75F73D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC8E074-830A-4C12-820B-025EB0068EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C2D49-01D5-4531-B15F-A00E03D59477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="212">
   <si>
     <t>项目名称：</t>
   </si>
@@ -826,10 +826,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>主页同步正确，书签未在可接受的时间内同步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>启动Firefox并登录，并等待适当时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1088,6 +1084,12 @@
     <t>2022-08-06T00:05+13</t>
   </si>
   <si>
+    <t>2022-08-06T00:05+14</t>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+15</t>
+  </si>
+  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1100,7 +1102,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>14.webm</t>
+      <t>16.webm</t>
     </r>
     <r>
       <rPr>
@@ -1114,7 +1116,7 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+14</t>
+    <t>2022-08-06T00:05+16</t>
   </si>
   <si>
     <r>
@@ -1129,6 +1131,97 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>17.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>启动 FireFox ，运行指定的操作，将 English(US) 修改为简体中文。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确更改了语言。但是发现更改语言期间在选择语言框内有乱码出现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动 FireFox ，运行指定的操作，搜索关键词。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页同步正确，书签插件未在可接受的时间内同步，在等待较长的时间后同步。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00022</t>
+  </si>
+  <si>
+    <t>保存网页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-36G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>保存指定网页，并在关闭后重新打开本地页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+17</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>失败。点击Save按钮后无法正确的关闭下载窗口。下载后的文件也未能打开。上述行为和Ubuntu上的行为不符，也和Mozila官方定义的行为不符。多次打开文件会导致出错的弹窗，正确的行为是打开多个进程（和窗口）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>15.webm</t>
     </r>
     <r>
@@ -1141,24 +1234,11 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+15</t>
-  </si>
-  <si>
-    <r>
-      <t>Video-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16.webm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-18.webm</t>
     </r>
     <r>
       <rPr>
@@ -1170,24 +1250,57 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+16</t>
-  </si>
-  <si>
-    <r>
-      <t>Video-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17.webm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00023</t>
+  </si>
+  <si>
+    <t>运行Firefox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启Firefox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-37G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>关闭Firefox后打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>提示有冲突。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-06T00:05+18</t>
+  </si>
+  <si>
+    <t>TC00024</t>
+  </si>
+  <si>
+    <t>修改默认搜索引擎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-38G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>将默认搜索引擎修改为bing并测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-20.webm</t>
     </r>
     <r>
       <rPr>
@@ -1199,6 +1312,27 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法设置搜索引擎，下拉为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-21.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1316,9 +1450,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,6 +1457,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1631,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1666,55 +1800,55 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1921,7 +2055,7 @@
       <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1983,7 +2117,7 @@
       <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2105,7 +2239,7 @@
         <v>85</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -2212,7 +2346,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2221,7 +2355,7 @@
       <c r="D11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2272,7 +2406,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2281,7 +2415,7 @@
       <c r="D12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="7"/>
@@ -2330,7 +2464,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2388,7 +2522,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2406,7 +2540,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>104</v>
@@ -2446,7 +2580,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2464,7 +2598,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>127</v>
@@ -2503,8 +2637,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2522,10 +2656,10 @@
         <v>55</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>133</v>
@@ -2549,7 +2683,7 @@
         <v>47</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>36</v>
@@ -2562,17 +2696,17 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
-        <v>148</v>
+      <c r="B17" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2580,9 +2714,11 @@
         <v>55</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
         <v>92</v>
       </c>
@@ -2598,31 +2734,29 @@
       <c r="Q17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="R17" s="9"/>
       <c r="S17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
-        <v>149</v>
+      <c r="B18" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2630,9 +2764,11 @@
         <v>55</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
         <v>92</v>
       </c>
@@ -2648,31 +2784,29 @@
       <c r="Q18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="R18" s="9"/>
       <c r="S18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T18" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
-        <v>150</v>
+      <c r="B19" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2680,9 +2814,11 @@
         <v>55</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
         <v>92</v>
       </c>
@@ -2698,31 +2834,29 @@
       <c r="Q19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="R19" s="9"/>
       <c r="S19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>151</v>
+      <c r="B20" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2730,9 +2864,11 @@
         <v>55</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
         <v>92</v>
       </c>
@@ -2748,31 +2884,29 @@
       <c r="Q20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="R20" s="9"/>
       <c r="S20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T20" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
-        <v>155</v>
+      <c r="B21" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2780,8 +2914,11 @@
         <v>55</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
         <v>92</v>
       </c>
@@ -2798,30 +2935,30 @@
         <v>47</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B22" s="11" t="s">
-        <v>158</v>
+      <c r="B22" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2829,8 +2966,11 @@
         <v>55</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
         <v>92</v>
       </c>
@@ -2846,31 +2986,29 @@
       <c r="Q22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B23" s="11" t="s">
-        <v>159</v>
+      <c r="B23" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2878,8 +3016,13 @@
         <v>55</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>169</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
         <v>92</v>
       </c>
@@ -2896,30 +3039,30 @@
         <v>47</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B24" s="11" t="s">
-        <v>162</v>
+    <row r="24" spans="2:21" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2927,8 +3070,13 @@
         <v>55</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>170</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
         <v>92</v>
       </c>
@@ -2945,16 +3093,178 @@
         <v>47</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="270" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +3275,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R25:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R26 R28:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576 F3:F20" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C2D49-01D5-4531-B15F-A00E03D59477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237805F-E6D2-4DB2-8EF7-6B800B5483D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$3:$U$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$3:$U$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1211,33 +1211,6 @@
   </si>
   <si>
     <r>
-      <t>Video-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15.webm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Video-18.webm</t>
     </r>
     <r>
@@ -1333,6 +1306,21 @@
       <t/>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-19.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -1765,10 +1753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1915,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>25</v>
@@ -1976,7 +1965,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -2039,7 +2028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
@@ -2163,7 +2152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="175.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
@@ -2225,7 +2214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="162" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>79</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
@@ -2345,7 +2334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>113</v>
       </c>
@@ -2405,7 +2394,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>118</v>
       </c>
@@ -2463,7 +2452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>123</v>
       </c>
@@ -2521,7 +2510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
         <v>81</v>
       </c>
@@ -2579,7 +2568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
@@ -2637,7 +2626,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
@@ -2944,7 +2933,7 @@
         <v>178</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="81" x14ac:dyDescent="0.15">
@@ -2994,10 +2983,10 @@
         <v>179</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
         <v>158</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
         <v>161</v>
       </c>
@@ -3105,7 +3094,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="270" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
         <v>188</v>
       </c>
@@ -3159,16 +3148,16 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3176,10 +3165,10 @@
         <v>55</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3187,7 +3176,7 @@
         <v>92</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>36</v>
@@ -3199,21 +3188,21 @@
         <v>37</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="T26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="81" x14ac:dyDescent="0.15">
-      <c r="B27" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>27</v>
@@ -3222,7 +3211,7 @@
         <v>160</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -3230,20 +3219,20 @@
         <v>55</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="s">
         <v>92</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>36</v>
@@ -3264,11 +3253,15 @@
         <v>192</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:U27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237805F-E6D2-4DB2-8EF7-6B800B5483D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4502A-4AFB-4164-A614-2ABB3A24A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$3:$U$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$3:$U$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="229">
   <si>
     <t>项目名称：</t>
   </si>
@@ -1321,6 +1321,112 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>按下快捷键查看下载历史</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出窗口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00031</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox 小工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图并保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击截图小工具并保存部分页码和全部页面并下载，用Firefox打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-22.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索oe，并切换到bing搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加并编辑书签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试无痕效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制工具栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在正常模式搜索oe，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在无痕模式输入oe检查有无记录。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1753,11 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>25</v>
@@ -1965,7 +2070,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -2028,7 +2133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
@@ -2090,7 +2195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
@@ -2152,7 +2257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="175.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="175.5" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
@@ -2214,7 +2319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="162" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>79</v>
       </c>
@@ -2274,7 +2379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
@@ -2334,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>113</v>
       </c>
@@ -2394,7 +2499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>118</v>
       </c>
@@ -2452,7 +2557,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>123</v>
       </c>
@@ -2510,7 +2615,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
         <v>81</v>
       </c>
@@ -2568,7 +2673,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
@@ -2626,7 +2731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
@@ -2705,9 +2810,15 @@
       <c r="I17" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="M17" s="7" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2866,9 @@
       <c r="I18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
@@ -2805,11 +2918,15 @@
       <c r="I19" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
-        <v>92</v>
+      <c r="M19" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>30</v>
@@ -2855,7 +2972,9 @@
       <c r="I20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
@@ -2905,9 +3024,13 @@
       <c r="I21" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="M21" s="7" t="s">
         <v>92</v>
       </c>
@@ -2957,9 +3080,13 @@
       <c r="I22" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="M22" s="7" t="s">
         <v>92</v>
       </c>
@@ -2986,7 +3113,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
         <v>158</v>
       </c>
@@ -3040,7 +3167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
         <v>161</v>
       </c>
@@ -3094,7 +3221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="270" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21" ht="270" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
         <v>188</v>
       </c>
@@ -3148,7 +3275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
         <v>196</v>
       </c>
@@ -3200,7 +3327,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
         <v>204</v>
       </c>
@@ -3256,19 +3383,67 @@
         <v>210</v>
       </c>
     </row>
+    <row r="28" spans="2:21" ht="54" x14ac:dyDescent="0.15">
+      <c r="B28" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:U27" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:U28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R26 R28:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R26 R29:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576 F3:F20" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/TestFirefox/测试用例模板.xlsx
+++ b/TestFirefox/测试用例模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLCT\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4502A-4AFB-4164-A614-2ABB3A24A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9D071-BAAB-4508-9A93-092278AA06A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$3:$U$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="297">
   <si>
     <t>项目名称：</t>
   </si>
@@ -190,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-04T20:19+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>J</t>
     </r>
@@ -323,10 +329,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-05T18:09+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Pic-2.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -366,9 +368,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-05T18:09+9</t>
-  </si>
-  <si>
     <t>Pic-3.png</t>
   </si>
   <si>
@@ -396,10 +395,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-05T18:20+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实体机分数9.17k，Vbox虚拟机（Ubuntu 22.04 LTS）8.28k，qemu 39分。该成绩足以怀疑 V8 引擎在 RISCV64 上的实现有所问题（或者没有优化）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -497,12 +492,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-05T18:20+9</t>
-  </si>
-  <si>
-    <t>2022-08-05T18:20+10</t>
-  </si>
-  <si>
     <t>成功，但是在加载组件期间，出现大量未响应，CPU使用率高于250%情况，说明引擎尚需优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -558,23 +547,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>022-08-05T23:45+8</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Video-</t>
     </r>
     <r>
@@ -640,10 +612,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-05T23:49+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TC00009</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -769,14 +737,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-05T23:58+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-08-06T00:00+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出的选择条位置不正确。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -820,10 +780,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>启动Firefox并登录，并等待适当时间</t>
@@ -965,9 +921,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-06T00:05+9</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -994,9 +947,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+10</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1023,9 +973,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+11</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1052,9 +999,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+12</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1081,15 +1025,6 @@
     </r>
   </si>
   <si>
-    <t>2022-08-06T00:05+13</t>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+14</t>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+15</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1114,9 +1049,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>2022-08-06T00:05+16</t>
   </si>
   <si>
     <r>
@@ -1177,9 +1109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-06T00:05+17</t>
-  </si>
-  <si>
     <r>
       <t>Video-</t>
     </r>
@@ -1253,9 +1182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022-08-06T00:05+18</t>
-  </si>
-  <si>
     <t>TC00024</t>
   </si>
   <si>
@@ -1331,8 +1257,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TC</t>
+    <t>Firefox 小工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图并保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击截图小工具并保存部分页码和全部页面并下载，用Firefox打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-22.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索oe，并切换到bing搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加并编辑书签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试无痕效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制工具栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在正常模式搜索oe，</t>
     </r>
     <r>
       <rPr>
@@ -1343,29 +1325,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00031</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firefox 小工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图并保存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击截图小工具并保存部分页码和全部页面并下载，用Firefox打开</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Video-22.webm</t>
+      <t>在无痕模式输入oe检查有无记录。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00026</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-23.webm</t>
     </r>
     <r>
       <rPr>
@@ -1377,39 +1354,401 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崩溃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索oe，并切换到bing搜索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>oe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加并编辑书签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试无痕效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制工具栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在正常模式搜索oe，</t>
+  </si>
+  <si>
+    <t>TC00027</t>
+  </si>
+  <si>
+    <t>TC00028</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-25.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00029</t>
+  </si>
+  <si>
+    <t>TC00030</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-27.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00031</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-28.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00032</t>
+  </si>
+  <si>
+    <t>TC00033</t>
+  </si>
+  <si>
+    <t>TC00034</t>
+  </si>
+  <si>
+    <t>TC00035</t>
+  </si>
+  <si>
+    <t>TC00036</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-33.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00037</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-34.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00038</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-35.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00039</t>
+  </si>
+  <si>
+    <r>
+      <t>Video-36.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TC00040</t>
+  </si>
+  <si>
+    <t>TC00041</t>
+  </si>
+  <si>
+    <t>TC00042</t>
+  </si>
+  <si>
+    <t>TC00043</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>浏览器操作</t>
+  </si>
+  <si>
+    <t>页面全屏</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：114G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>1、页面全屏、缩小、收起切换</t>
+  </si>
+  <si>
+    <t>与对照组结果相同</t>
+  </si>
+  <si>
+    <t>与Windows 10 x64进行对比</t>
+  </si>
+  <si>
+    <t>开发者模式</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：115G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>1、打开菜单  2、进入开发者模式</t>
+  </si>
+  <si>
+    <t>启动开发工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-6.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改HTML</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：116G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：117G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>选择资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-25.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试console</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：118G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>调试器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：119G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>测试按钮可靠性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式编辑器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存存储器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：120G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：121G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：122G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：123G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>Pic-7.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-8.png</t>
+  </si>
+  <si>
+    <t>Pic-9.png</t>
+  </si>
+  <si>
+    <t>Pic-10.png</t>
+  </si>
+  <si>
+    <t>不通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法加载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主题</t>
+  </si>
+  <si>
+    <t>1、打开菜单 2、扩展和主题 3、选中应用主题</t>
+  </si>
+  <si>
+    <t>李梦玉</t>
+  </si>
+  <si>
+    <t>符合预期结果</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>网页浏览</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知乎 </t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/signin?next=%2F</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：132G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>1、登录（扫码登录、短信登录）2、观察排版</t>
+  </si>
+  <si>
+    <t>1、页面布局不同CTRL+鼠标滚轮调节大小无反应（复测后正常）    2、扫描二维码之后无反应3、短信登陆无法输入电话号码</t>
+  </si>
+  <si>
+    <t>页面回退</t>
+  </si>
+  <si>
+    <t>1、多层页面点击回退</t>
+  </si>
+  <si>
+    <t>将书签以HTML文件格式导出</t>
+  </si>
+  <si>
+    <t>1 点击菜单按钮打开菜单面板。 点击 书签，然后点击位于底部的 管理书签。
+2从我的足迹窗口的工具栏上，点击 导入和备份，然后选择下拉菜单 导出书签为 HTML...。
+3在打开的导出书签文件窗口中，选择一个位置保存该文件，默认情况下将命名为 bookmarks.html。通常桌面是个好地方，不过任何容易记住的地方都可以。
+4点击 保存 按钮。导出书签文件窗口将会自动关闭。
+5关闭我的足迹窗口</t>
+  </si>
+  <si>
+    <t>www.4399.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>firefox,暗黑模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-11.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新标签页打开</t>
+  </si>
+  <si>
+    <r>
+      <t>1、右击可打开链接，选择新</t>
     </r>
     <r>
       <rPr>
@@ -1420,12 +1759,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在无痕模式输入oe检查有无记录。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有记录</t>
+      <t>标签页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开</t>
+    </r>
+  </si>
+  <si>
+    <t>下载照片</t>
+  </si>
+  <si>
+    <t>1、点击搜索到的照片，右击下载到桌面，并在桌面打开。</t>
+  </si>
+  <si>
+    <t>断网下浏览</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-12.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,6 +1837,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1511,11 +1879,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,10 +1926,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{ED440AC4-F166-4F59-A736-CC6A99B18A13}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="2" xr:uid="{47B8B7AC-877B-4E1A-AB3A-504A574C52BB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1859,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2039,13 +2473,13 @@
         <v>34</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>30</v>
@@ -2057,16 +2491,16 @@
         <v>36</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="S4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>38</v>
+      <c r="T4" s="30">
+        <v>44781</v>
       </c>
       <c r="U4" s="9"/>
     </row>
@@ -2079,34 +2513,34 @@
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>30</v>
@@ -2121,54 +2555,54 @@
         <v>37</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>38</v>
+      <c r="T5" s="30">
+        <v>44782</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>30</v>
@@ -2180,57 +2614,57 @@
         <v>36</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>58</v>
+      <c r="T6" s="30">
+        <v>44783</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>30</v>
@@ -2242,48 +2676,48 @@
         <v>36</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>69</v>
+      <c r="T7" s="30">
+        <v>44784</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="175.5" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>30</v>
@@ -2292,10 +2726,10 @@
         <v>30</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>36</v>
@@ -2304,175 +2738,179 @@
         <v>36</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>77</v>
+      <c r="T8" s="30">
+        <v>44785</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="S9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>95</v>
+      <c r="T9" s="30">
+        <v>44786</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="S10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>96</v>
+      <c r="T10" s="30">
+        <v>44787</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>30</v>
@@ -2484,53 +2922,55 @@
         <v>36</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>111</v>
+      <c r="T11" s="30">
+        <v>44788</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>30</v>
@@ -2542,53 +2982,55 @@
         <v>36</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>117</v>
+      <c r="T12" s="30">
+        <v>44789</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>30</v>
@@ -2600,53 +3042,55 @@
         <v>36</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>129</v>
+      <c r="T13" s="30">
+        <v>44790</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>30</v>
@@ -2658,53 +3102,55 @@
         <v>36</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="30">
+        <v>44791</v>
+      </c>
+      <c r="U14" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>30</v>
@@ -2716,53 +3162,55 @@
         <v>36</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>130</v>
+      <c r="T15" s="30">
+        <v>44792</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>30</v>
@@ -2774,53 +3222,55 @@
         <v>36</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="9" t="s">
-        <v>137</v>
+      <c r="T16" s="30">
+        <v>44793</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>30</v>
@@ -2832,47 +3282,49 @@
         <v>36</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>170</v>
+      <c r="T17" s="30">
+        <v>44794</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>30</v>
@@ -2884,49 +3336,51 @@
         <v>36</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="9" t="s">
-        <v>172</v>
+      <c r="T18" s="30">
+        <v>44795</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>30</v>
@@ -2938,47 +3392,49 @@
         <v>36</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="9" t="s">
-        <v>174</v>
+      <c r="T19" s="30">
+        <v>44796</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>30</v>
@@ -2990,49 +3446,51 @@
         <v>36</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="9" t="s">
-        <v>176</v>
+      <c r="T20" s="30">
+        <v>44797</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B21" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>30</v>
@@ -3044,51 +3502,53 @@
         <v>36</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>178</v>
+      <c r="T21" s="30">
+        <v>44798</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B22" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="9" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>30</v>
@@ -3100,47 +3560,49 @@
         <v>36</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="9" t="s">
-        <v>179</v>
+      <c r="T22" s="30">
+        <v>44799</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>30</v>
@@ -3152,49 +3614,51 @@
         <v>36</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="9" t="s">
-        <v>180</v>
+      <c r="T23" s="30">
+        <v>44800</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>30</v>
@@ -3206,49 +3670,51 @@
         <v>36</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="9" t="s">
-        <v>182</v>
+      <c r="T24" s="30">
+        <v>44801</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="270" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>30</v>
@@ -3260,50 +3726,52 @@
         <v>36</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="9" t="s">
-        <v>192</v>
+      <c r="T25" s="30">
+        <v>44802</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>36</v>
@@ -3315,51 +3783,53 @@
         <v>37</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T26" s="9" t="s">
-        <v>203</v>
+      <c r="T26" s="30">
+        <v>44803</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="81" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>36</v>
@@ -3368,47 +3838,49 @@
         <v>36</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>192</v>
+      <c r="T27" s="30">
+        <v>44804</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="54" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G28" s="9" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="9" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>30</v>
@@ -3422,17 +3894,1067 @@
       <c r="Q28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="30">
+        <v>44805</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="30">
+        <v>44806</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="30">
+        <v>44807</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="30">
+        <v>44808</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="30">
+        <v>44809</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="30">
+        <v>44810</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="30">
+        <v>44811</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B35" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="30">
+        <v>44812</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B36" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="30">
+        <v>44813</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="30">
+        <v>44814</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B38" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="S28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>219</v>
+      <c r="C38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" s="30">
+        <v>44815</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B39" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="30">
+        <v>44816</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="135" x14ac:dyDescent="0.15">
+      <c r="B40" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="T40" s="30">
+        <v>44817</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B41" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="R41" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="T41" s="30">
+        <v>44818</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="R42" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="S42" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="T42" s="30">
+        <v>44819</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="29">
+        <v>4399</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="30">
+        <v>44820</v>
+      </c>
+      <c r="U43" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M44" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="S44" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="T44" s="30">
+        <v>44821</v>
+      </c>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B45" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="N45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="R45" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="T45" s="30">
+        <v>44822</v>
+      </c>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="2:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="30">
+        <v>44823</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3443,10 +4965,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R26 R29:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R26:R28 R47:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576 F3:F20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3459,8 +4981,10 @@
     <hyperlink ref="E19" r:id="rId6" location="w_dai-you-zeng-qiang-gen-zong-bao-hu-de-yin-si-liu-lan-kuai-su-er-qie-mian-fei" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_dai-you-zeng-qiang-gen-zong-bao-hu-de-yin-si-liu-lan-kuai-su-er-qie-mian-fei" xr:uid="{00235EA2-051E-40E3-ADED-060B077CB6E8}"/>
     <hyperlink ref="E20" r:id="rId7" location="w_ding-zhi-cai-dan-he-gong-ju-lan" display="https://support.mozilla.org/zh-CN/kb/Firefox %E4%BD%BF%E7%94%A8%E5%85%A5%E9%97%A8 - w_ding-zhi-cai-dan-he-gong-ju-lan" xr:uid="{1EBA5ADC-67E2-4BC4-89EC-49AC1684D248}"/>
     <hyperlink ref="E23" r:id="rId8" location="w_shi-yong-cha-zhao-lan" display="https://support.mozilla.org/zh-CN/kb/%E5%9C%A8%E9%A1%B5%E9%9D%A2%E5%86%85%E6%90%9C%E7%B4%A2 - w_shi-yong-cha-zhao-lan" xr:uid="{6349AF0C-7D15-4ABE-9EC1-B3DAA75F73D9}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G43" r:id="rId10" xr:uid="{DE94324E-D476-4B7C-9ADC-453BFD693FD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>